--- a/test_datas/api_info.xlsx
+++ b/test_datas/api_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860"/>
+    <workbookView windowWidth="14685" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="case_datas" sheetId="1" r:id="rId1"/>
@@ -17,11 +17,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="63">
   <si>
     <t>case_id</t>
   </si>
   <si>
+    <t>api_name</t>
+  </si>
+  <si>
     <t>case_desc</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
     <t>001</t>
   </si>
   <si>
+    <t>register</t>
+  </si>
+  <si>
     <t>无昵称注册</t>
   </si>
   <si>
@@ -62,12 +68,27 @@
   </si>
   <si>
     <t>{"mobilephone":"${phone1}", "pwd":"test123"}</t>
+  </si>
+  <si>
+    <t>phone1=$..mobilephone</t>
   </si>
   <si>
     <t>$..code: "10001",
 $..msg: "注册成功"</t>
   </si>
   <si>
+    <t>查询数据库</t>
+  </si>
+  <si>
+    <t>http://localhost:5000/query/one</t>
+  </si>
+  <si>
+    <t>{"query_sql":"select * from member where MobilePhone={{phone1}}"}</t>
+  </si>
+  <si>
+    <t>$..code:"200"</t>
+  </si>
+  <si>
     <t>002</t>
   </si>
   <si>
@@ -78,6 +99,9 @@
   </si>
   <si>
     <t>phone2=$..mobilephone</t>
+  </si>
+  <si>
+    <t>{"query_sql":"select * from member where MobilePhone={{phone2}}"}</t>
   </si>
   <si>
     <t>003</t>
@@ -105,6 +129,9 @@
     <t>004</t>
   </si>
   <si>
+    <t>login</t>
+  </si>
+  <si>
     <t>注册-&gt;登录</t>
   </si>
   <si>
@@ -128,6 +155,9 @@
   </si>
   <si>
     <t>005</t>
+  </si>
+  <si>
+    <t>invest</t>
   </si>
   <si>
     <t>充值--&gt;获取投资记录</t>
@@ -167,6 +197,12 @@
     <t>$..status: "1",
 $..code: "10001",
 $..msg: "获取用户投资列表成功"</t>
+  </si>
+  <si>
+    <t>检查数据库</t>
+  </si>
+  <si>
+    <t>{"query_sql":"select * from member where MobilePhone={{phone4}} and LeaveAmount=200"}</t>
   </si>
   <si>
     <t>注册成功，无昵称</t>
@@ -186,9 +222,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -223,9 +259,114 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -237,19 +378,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -260,103 +393,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -373,19 +409,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,157 +541,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,6 +594,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -572,50 +628,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,6 +656,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -658,6 +679,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -666,10 +702,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -678,133 +714,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -842,8 +878,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -853,9 +892,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1205,26 +1241,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.625" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="21.125" customWidth="1"/>
-    <col min="5" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="45.875" customWidth="1"/>
-    <col min="7" max="7" width="23.5" customWidth="1"/>
-    <col min="8" max="8" width="18.5" customWidth="1"/>
-    <col min="9" max="9" width="30.25" customWidth="1"/>
+    <col min="1" max="2" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="22.25" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="5" max="5" width="36.625" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="7" width="67.25" customWidth="1"/>
+    <col min="8" max="8" width="23.5" customWidth="1"/>
+    <col min="9" max="9" width="18.5" customWidth="1"/>
+    <col min="10" max="10" width="30.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:9">
+    <row r="1" ht="16.5" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1252,219 +1288,318 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" ht="33" spans="1:9">
-      <c r="A2" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="2" ht="33" spans="1:10">
+      <c r="A2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:10">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" ht="33" spans="1:10">
+      <c r="A4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="9" t="s">
+      <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" ht="33" spans="1:9">
-      <c r="A3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="G4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:10">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" ht="33" customHeight="1" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="C6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="9" t="s">
+      <c r="E6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="4" ht="33" customHeight="1" spans="1:9">
-      <c r="A4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="33" spans="1:9">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" ht="33" customHeight="1" spans="1:9">
-      <c r="A6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="10" t="s">
+      <c r="H6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" ht="33" spans="1:10">
+      <c r="A7" s="5"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" ht="33" spans="1:9">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="7"/>
+      <c r="J7" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" ht="90" customHeight="1" spans="1:9">
+    <row r="8" ht="33" customHeight="1" spans="1:10">
       <c r="A8" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="H8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" s="11" customFormat="1" ht="49.5" spans="1:9">
+      <c r="I8" s="7"/>
+      <c r="J8" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" ht="33" spans="1:10">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="11" t="s">
+    </row>
+    <row r="10" ht="90" customHeight="1" spans="1:10">
+      <c r="A10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="B10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="C10" s="5" t="s">
         <v>46</v>
       </c>
+      <c r="D10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" s="7" customFormat="1" ht="49.5" spans="1:10">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" s="7" customFormat="1" ht="16.5" spans="1:10">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="15">
+    <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C12"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://localhost:8099/futureloan/mvc/api/member/register" tooltip="http://localhost:8099/futureloan/mvc/api/member/register"/>
-    <hyperlink ref="D4" r:id="rId1" display="http://localhost:8099/futureloan/mvc/api/member/register"/>
-    <hyperlink ref="D5" r:id="rId1" display="http://localhost:8099/futureloan/mvc/api/member/register"/>
-    <hyperlink ref="D6" r:id="rId1" display="http://localhost:8099/futureloan/mvc/api/member/register"/>
-    <hyperlink ref="D7" r:id="rId2" display="http://localhost:8099/futureloan/mvc/api/member/login" tooltip="http://localhost:8099/futureloan/mvc/api/member/login"/>
-    <hyperlink ref="D3" r:id="rId1" display="http://localhost:8099/futureloan/mvc/api/member/register"/>
-    <hyperlink ref="D8" r:id="rId3" display="http://localhost:8099/futureloan/mvc/api/member/recharge" tooltip="http://localhost:8099/futureloan/mvc/api/member/recharge"/>
-    <hyperlink ref="D9" r:id="rId4" display="http://localhost:8099/futureloan/mvc/api/invest/getInvestsByMemberId" tooltip="http://localhost:8099/futureloan/mvc/api/invest/getInvestsByMemberId"/>
+    <hyperlink ref="E2" r:id="rId1" display="http://localhost:8099/futureloan/mvc/api/member/register" tooltip="http://localhost:8099/futureloan/mvc/api/member/register"/>
+    <hyperlink ref="E6" r:id="rId1" display="http://localhost:8099/futureloan/mvc/api/member/register"/>
+    <hyperlink ref="E7" r:id="rId1" display="http://localhost:8099/futureloan/mvc/api/member/register"/>
+    <hyperlink ref="E8" r:id="rId1" display="http://localhost:8099/futureloan/mvc/api/member/register"/>
+    <hyperlink ref="E9" r:id="rId2" display="http://localhost:8099/futureloan/mvc/api/member/login" tooltip="http://localhost:8099/futureloan/mvc/api/member/login"/>
+    <hyperlink ref="E4" r:id="rId1" display="http://localhost:8099/futureloan/mvc/api/member/register"/>
+    <hyperlink ref="E10" r:id="rId3" display="http://localhost:8099/futureloan/mvc/api/member/recharge" tooltip="http://localhost:8099/futureloan/mvc/api/member/recharge"/>
+    <hyperlink ref="E11" r:id="rId4" display="http://localhost:8099/futureloan/mvc/api/invest/getInvestsByMemberId" tooltip="http://localhost:8099/futureloan/mvc/api/invest/getInvestsByMemberId"/>
+    <hyperlink ref="E3" r:id="rId5" display="http://localhost:5000/query/one" tooltip="http://localhost:5000/query/one"/>
+    <hyperlink ref="E5" r:id="rId5" display="http://localhost:5000/query/one" tooltip="http://localhost:5000/query/one"/>
+    <hyperlink ref="E12" r:id="rId5" display="http://localhost:5000/query/one" tooltip="http://localhost:5000/query/one"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1497,195 +1632,195 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" ht="33" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" ht="33" customHeight="1" spans="1:9">
       <c r="A3" s="5" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:9">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" ht="33" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" ht="33" customHeight="1" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:9">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:9">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/test_datas/api_info.xlsx
+++ b/test_datas/api_info.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14685" windowHeight="8460"/>
+    <workbookView windowWidth="14685" windowHeight="8460" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="case_datas" sheetId="1" r:id="rId1"/>
-    <sheet name="case_datas (2)" sheetId="4" r:id="rId2"/>
+    <sheet name="case_datas (2)" sheetId="4" state="hidden" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="68">
   <si>
     <t>case_id</t>
   </si>
@@ -31,6 +31,9 @@
     <t>step_name</t>
   </si>
   <si>
+    <t>host</t>
+  </si>
+  <si>
     <t>url</t>
   </si>
   <si>
@@ -61,7 +64,10 @@
     <t>注册</t>
   </si>
   <si>
-    <t>http://localhost:8099/futureloan/mvc/api/member/register</t>
+    <t>test</t>
+  </si>
+  <si>
+    <t>/futureloan/mvc/api/member/register</t>
   </si>
   <si>
     <t>post</t>
@@ -80,7 +86,10 @@
     <t>查询数据库</t>
   </si>
   <si>
-    <t>http://localhost:5000/query/one</t>
+    <t>sql</t>
+  </si>
+  <si>
+    <t>/query/one</t>
   </si>
   <si>
     <t>{"query_sql":"select * from member where MobilePhone={{phone1}}"}</t>
@@ -144,7 +153,7 @@
     <t>登录</t>
   </si>
   <si>
-    <t>http://localhost:8099/futureloan/mvc/api/member/login</t>
+    <t>/futureloan/mvc/api/member/login</t>
   </si>
   <si>
     <t>{"mobilephone":"{{phone4}}", "pwd":"test123"}</t>
@@ -166,7 +175,7 @@
     <t>充值</t>
   </si>
   <si>
-    <t>http://localhost:8099/futureloan/mvc/api/member/recharge</t>
+    <t>/futureloan/mvc/api/member/recharge</t>
   </si>
   <si>
     <t>{"mobilephone":"{{phone4}}", "amount":"200.00"}</t>
@@ -185,7 +194,7 @@
     <t>获取投资记录</t>
   </si>
   <si>
-    <t>http://localhost:8099/futureloan/mvc/api/invest/getInvestsByMemberId</t>
+    <t>/futureloan/mvc/api/invest/getInvestsByMemberId</t>
   </si>
   <si>
     <t>get</t>
@@ -208,7 +217,13 @@
     <t>注册成功，无昵称</t>
   </si>
   <si>
+    <t>http://localhost:8099/futureloan/mvc/api/member/register</t>
+  </si>
+  <si>
     <t>{"mobilephone":"${phone2}", "pwd":"test123"}</t>
+  </si>
+  <si>
+    <t>http://localhost:8099/futureloan/mvc/api/member/login</t>
   </si>
   <si>
     <t>{"mobilephone":"{{phone2}}", "pwd":"test123"}</t>
@@ -222,10 +237,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -259,9 +274,86 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -274,7 +366,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -282,37 +374,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,41 +394,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -377,22 +408,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -409,49 +424,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,121 +538,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,6 +609,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -612,7 +681,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,62 +704,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,10 +717,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -714,7 +729,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -723,7 +738,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -732,115 +747,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1241,26 +1256,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="13.125" customWidth="1"/>
     <col min="3" max="3" width="22.25" customWidth="1"/>
-    <col min="4" max="4" width="10.75" customWidth="1"/>
-    <col min="5" max="5" width="36.625" customWidth="1"/>
-    <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="7" width="67.25" customWidth="1"/>
-    <col min="8" max="8" width="23.5" customWidth="1"/>
-    <col min="9" max="9" width="18.5" customWidth="1"/>
-    <col min="10" max="10" width="30.25" customWidth="1"/>
+    <col min="4" max="5" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="36.625" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
+    <col min="8" max="8" width="67.25" customWidth="1"/>
+    <col min="9" max="9" width="23.5" customWidth="1"/>
+    <col min="10" max="10" width="18.5" customWidth="1"/>
+    <col min="11" max="11" width="30.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:10">
+    <row r="1" ht="16.5" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1291,283 +1306,319 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" ht="33" spans="1:10">
+    <row r="2" ht="33" spans="1:11">
       <c r="A2" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="F2" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="G2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="I2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" ht="16.5" spans="1:10">
+    <row r="3" ht="16.5" spans="1:11">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
       <c r="D3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" ht="33" spans="1:11">
+      <c r="A4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="9" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="4" ht="33" spans="1:10">
-      <c r="A4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" ht="16.5" spans="1:10">
+    <row r="5" ht="16.5" spans="1:11">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
       <c r="D5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" ht="33" customHeight="1" spans="1:11">
+      <c r="A6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="9" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="6" ht="33" customHeight="1" spans="1:10">
-      <c r="A6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" ht="33" spans="1:10">
+    <row r="7" ht="33" spans="1:11">
       <c r="A7" s="5"/>
       <c r="B7" s="11"/>
       <c r="C7" s="6"/>
       <c r="D7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" ht="33" customHeight="1" spans="1:11">
+      <c r="A8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="10" t="s">
-        <v>34</v>
+      <c r="F8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="8" ht="33" customHeight="1" spans="1:10">
-      <c r="A8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" ht="33" spans="1:10">
+    <row r="9" ht="33" spans="1:11">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="F9" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="G9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="I9" s="7"/>
-      <c r="J9" s="10" t="s">
-        <v>43</v>
+      <c r="J9" s="7"/>
+      <c r="K9" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="10" ht="90" customHeight="1" spans="1:10">
+    <row r="10" ht="90" customHeight="1" spans="1:11">
       <c r="A10" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="F10" s="15" t="s">
+        <v>51</v>
+      </c>
       <c r="G10" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>51</v>
+        <v>17</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="11" s="7" customFormat="1" ht="49.5" spans="1:10">
+    <row r="11" s="7" customFormat="1" ht="49.5" spans="1:11">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="12" s="7" customFormat="1" ht="16.5" spans="1:10">
+    <row r="12" s="7" customFormat="1" ht="16.5" spans="1:11">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>60</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1589,17 +1640,17 @@
     <mergeCell ref="C10:C12"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="http://localhost:8099/futureloan/mvc/api/member/register" tooltip="http://localhost:8099/futureloan/mvc/api/member/register"/>
-    <hyperlink ref="E6" r:id="rId1" display="http://localhost:8099/futureloan/mvc/api/member/register"/>
-    <hyperlink ref="E7" r:id="rId1" display="http://localhost:8099/futureloan/mvc/api/member/register"/>
-    <hyperlink ref="E8" r:id="rId1" display="http://localhost:8099/futureloan/mvc/api/member/register"/>
-    <hyperlink ref="E9" r:id="rId2" display="http://localhost:8099/futureloan/mvc/api/member/login" tooltip="http://localhost:8099/futureloan/mvc/api/member/login"/>
-    <hyperlink ref="E4" r:id="rId1" display="http://localhost:8099/futureloan/mvc/api/member/register"/>
-    <hyperlink ref="E10" r:id="rId3" display="http://localhost:8099/futureloan/mvc/api/member/recharge" tooltip="http://localhost:8099/futureloan/mvc/api/member/recharge"/>
-    <hyperlink ref="E11" r:id="rId4" display="http://localhost:8099/futureloan/mvc/api/invest/getInvestsByMemberId" tooltip="http://localhost:8099/futureloan/mvc/api/invest/getInvestsByMemberId"/>
-    <hyperlink ref="E3" r:id="rId5" display="http://localhost:5000/query/one" tooltip="http://localhost:5000/query/one"/>
-    <hyperlink ref="E5" r:id="rId5" display="http://localhost:5000/query/one" tooltip="http://localhost:5000/query/one"/>
-    <hyperlink ref="E12" r:id="rId5" display="http://localhost:5000/query/one" tooltip="http://localhost:5000/query/one"/>
+    <hyperlink ref="F2" r:id="rId1" display="/futureloan/mvc/api/member/register" tooltip="http://localhost:8099/futureloan/mvc/api/member/register"/>
+    <hyperlink ref="F6" r:id="rId1" display="/futureloan/mvc/api/member/register"/>
+    <hyperlink ref="F7" r:id="rId1" display="/futureloan/mvc/api/member/register"/>
+    <hyperlink ref="F8" r:id="rId1" display="/futureloan/mvc/api/member/register"/>
+    <hyperlink ref="F9" r:id="rId2" display="/futureloan/mvc/api/member/login" tooltip="http://localhost:8099/futureloan/mvc/api/member/login"/>
+    <hyperlink ref="F4" r:id="rId1" display="/futureloan/mvc/api/member/register"/>
+    <hyperlink ref="F10" r:id="rId3" display="/futureloan/mvc/api/member/recharge" tooltip="http://localhost:8099/futureloan/mvc/api/member/recharge"/>
+    <hyperlink ref="F11" r:id="rId4" display="/futureloan/mvc/api/invest/getInvestsByMemberId" tooltip="http://localhost:8099/futureloan/mvc/api/invest/getInvestsByMemberId"/>
+    <hyperlink ref="F3" r:id="rId5" display="/query/one" tooltip="http://localhost:5000/query/one"/>
+    <hyperlink ref="F5" r:id="rId5" display="/query/one" tooltip="http://localhost:5000/query/one"/>
+    <hyperlink ref="F12" r:id="rId5" display="/query/one" tooltip="http://localhost:5000/query/one"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1638,189 +1689,189 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" ht="33" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" ht="33" customHeight="1" spans="1:9">
       <c r="A3" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:9">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" ht="33" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" ht="33" customHeight="1" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:9">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:9">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1850,7 +1901,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
